--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/62_Niğde_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/62_Niğde_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F3C920-D7EF-4D94-B667-7BA60C4824FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D13AF73-C7E6-4F4A-9052-7907A15898DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{973AC741-2A43-461B-8139-F709052D6744}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{DA861CF7-3CD5-4F25-8DD5-A61DE2DA2C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -988,14 +988,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6A225F4B-763C-433B-939A-E9E95D00ABEB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1E33EB4B-BAEF-44EA-B1BB-992F28A3535C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A341BF05-A0E5-4FEA-BA6C-FF640B21788D}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{B584DECB-D34D-48A7-AA54-322D04FE4D98}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F041A45F-5E37-437B-8F7B-A62C7977C80B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{17D38ED8-2E62-495B-9809-1D1C30259784}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{3A3E9412-E2EE-41F7-8E59-1A5E976EEB67}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{643A838E-EAB7-4D21-8472-8772D08B5F04}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{230C72D4-4E96-48F6-A612-31839B80202E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{41937CA5-2376-4AF4-8B3F-51B04E3E97BB}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{83373BAD-8B3D-4A3C-9F74-FC1F54E94720}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{6D7F9235-B096-4D50-95E1-CE1E6B125305}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C292DD0F-7D7B-48BA-BD82-D116A3BCD9EE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{90DBB90A-E163-48B0-BD6F-EE7207B712F6}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{DD975634-206B-406D-AF2D-2393EB494DA2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{59C53806-0687-47DA-AD92-0EB31FC95399}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16955E86-9113-41FE-B7AA-A9075670724E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7DB54-AB3E-469C-89DE-2FF65A3F615C}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2720,18 +2720,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4D98EE3-C008-4031-B348-561C59DCB294}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74AE95C3-731C-4F2D-9C63-F8A867076C53}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38A2D74A-B465-432D-8043-68CBE561365F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{472084C0-2855-47CD-952E-2358ABB61732}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BFF0D278-594C-46CF-8737-C515462D7EF2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5DB330D-9F88-4ECE-A685-FD648EEC29E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E4A0B91-426D-4AB6-8C5E-9A3AC8B19F33}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37E5B1D4-0E41-4100-BC55-B75902A69A7F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAAEBC61-8C02-4212-8FF8-F6B5EF56812C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{676A9749-AB56-4C83-B15E-8E6D9E2C0EE9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2ADCD16-A071-4C8B-AA20-93E9788EB305}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90497BC6-6E1C-4276-A167-E901460C1168}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5A61CF4-9521-4F64-B3B6-7AA8B1487DFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90330396-C7EF-4045-BAA5-6159A8663082}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{84882580-C8E2-4729-97B4-AAED5EEC9252}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09A229C1-659D-4FAD-9CFA-2944AB9E8609}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BD1CB675-F62F-4B64-A3AC-24A8BB99628A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51D34D69-4C76-418F-BAC0-B11334CE1F7E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E16A0F7C-E4F7-4561-B111-419E50791380}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5435552-64B5-4F96-B2CC-8ABC996EDBF2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07598302-33D1-42C6-B4E6-586EC6F432AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DFF934D-B607-4293-AFC9-D05EE526B2F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{53959DD3-3A2A-43B2-AB5F-826F7D3F1ADD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A2145DB-54F2-4412-8474-D14FCA82A22A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2744,7 +2744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F4AC5E-1CFD-45EE-A40A-BBFE2EB5D6B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8EB8F-5DBC-4C0F-A471-FA341C50BB5C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3970,18 +3970,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{530AC6FC-7873-47C6-AAB3-5920DDD546F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1490FCE0-8C85-4D7B-9CFE-F42242D7CCE3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9693168C-2B85-4311-A7F2-105B8FF37E3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78535726-6C8B-4C80-AEF0-DA4ECE8F6110}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{66137CFA-C541-47F0-AB41-C8D84F4D2BFE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0591AB73-F0C7-49BB-824A-B4AC57564028}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{602301AE-9E91-4C6C-9B31-928292923A53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57BD1D45-0140-4818-8A9B-DA8EA837DBE6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07292CD0-3490-4134-B94B-168FE592975A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06F42477-C786-4208-8314-59902B3085B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83AB6B87-5BA6-43F2-8195-544243AB9EF0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD513B59-1D6D-475C-977C-268E577BD588}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E72B4AB3-03BA-4554-B04B-796921FB3332}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5B989B4-5868-4EE4-AAD7-B20C3762AF6F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5773512B-A9A6-42E0-ABE3-5F73D87D29B9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A8742B1-42EF-4363-9964-E2A3CB1A5FB9}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{499CC602-E820-42FD-9C11-53757CDE772F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35B162F4-4B08-4CF6-BB40-6BE34C1C3D1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C79D62C-887C-4896-9161-38B9627C5F15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52C8E0D7-0E42-4A60-96D5-9BAA97C72328}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{769A0E27-95A0-4735-BA10-52FBC0956947}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AAC5C579-FB6D-4911-902F-17B3F70953B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A018BA16-9EB7-422B-9721-A26D9EBF222D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34050775-9268-43DA-8256-60A7741D5C8B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3994,7 +3994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2A1608-6883-4FEF-BE0F-B0532E529288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B577C1A-3E7A-4270-9775-6BE277D10583}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5220,18 +5220,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B23ADD5-448C-403F-9711-B1AA9D8E4A2E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78EE1B78-79FC-4039-8CF7-9680E576E497}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B0B2DC8-9389-402A-AE07-BF5A3EA1A1C2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DCFCD4B7-0AF7-42A9-8B2F-DD91C0DFDD98}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DDABB053-AEF3-4D44-8054-8626E7F3983E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5166AC3B-5CCA-444F-85B6-FE07B713623E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC86789C-35FA-4AB9-A0C5-A6A6F8D4421A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA20024E-BE94-4B2D-A817-CB4168F52427}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAA727FF-C474-49CC-9098-2683A079A348}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6F2AE61-2A69-4A5A-A2AC-2301EB20734D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99B60385-6D4E-482B-9489-5128BB1D2867}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E81A56B9-E3D2-4297-A154-261234DBF3C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{301CE734-71E9-467E-B801-03CEFB1B5016}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B8B32FC-BCFE-47CC-B725-0AAA5CA34963}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C9ADCFE-A45E-4FDB-808A-0A453F29A1D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02F90B98-B419-45BA-B99E-C4B5B49D5E53}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BC38432C-FEE1-45E6-A3E7-E632773A47D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A45ADEE7-B1B4-4971-9C49-D5C17911430E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD680B2C-D9DF-4E10-B471-97C79BCF322B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4269388A-B0D7-4134-9CE7-370D6857638D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF330F30-26B6-4044-B18B-645774B61EB4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3DAD50C-269E-4700-91DA-3F92DA1C1493}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{636B6833-5440-42C9-8CF7-85B7A323E6B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26CD2FCA-195F-4423-9379-2AE40F07A0A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5244,7 +5244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53C3B02-5CF6-400C-8A81-5F7982389B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D103C6-01BC-4251-9DF4-F64612B57F8C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6460,18 +6460,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4E3A360-A453-4AD3-A9E5-873710286A30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FE2754B-EC24-436F-8565-EA3FF56DCE94}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5F81192-BB64-4F8C-9556-0D68BFABAB56}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1194BD24-F713-4BBA-AE77-8A812755D952}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0346DE5C-FD45-4E3B-8280-4F199FC87E67}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BBE1916-9F59-486B-B532-DA32352301DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46157FEA-E57E-404B-9FD2-01B1010BBF0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F486A5C-962E-48B5-8F18-2EA9E63C72CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7AF3DD08-F8DE-4CE3-AE36-9ECA58575384}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{797B127F-EE5E-4072-9157-B1E63A997A12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB04C391-F2D8-4286-BC8D-EB666357A016}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85052387-43DB-49CE-AAC8-57CF40056972}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CCDBCE1-E4CE-4397-B8A3-C31CAA3C4B02}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{890CA8C2-E7A9-4BD8-9FB1-FC79CF438E31}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1AB70B93-0DEE-4135-BF3E-288D7E0FB15D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2778D365-E49C-40FF-B67E-1D55FB85A188}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0C36E23B-765D-47D3-8030-3F9AE6A9D5A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40CC77AB-BA4C-4680-98BC-CDF565FE333A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC357473-0055-4C12-8318-C0A61B47FBFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{336E9B3F-BBD1-4D1F-B9CE-5C4DBC549153}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E126491-1060-451A-9443-F22569F5E39F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{169A3E4B-4BC4-4FDC-88F0-33E0E05D60D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF6EE84A-5C8D-4702-A278-5701F0B3817B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21498187-99A8-4645-8BCF-9095F47A4E34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6484,7 +6484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C74810-10D3-42B6-98DB-6C6762031E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A7ACCD-1317-4A0B-B9CD-D1AA0BD8EAB1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7721,18 +7721,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39FB0DDE-5A3A-4FAF-9B5E-64159D62451E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3AB31C4-AA45-4693-BF61-F07BC22E459A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{428AC7B8-133C-44DC-BA37-392248EB9154}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{047B7A72-3D24-4000-B3D0-72E57EC1139E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{03AF8553-5A6B-4120-905B-BD6AE04F1D7E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E98C243-1C65-4BF4-B469-77D852AAC3C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6190DB9E-7B21-42FC-BA19-840E5F75C38A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{371E075B-17B9-4619-9AEF-8975EE1E4A3D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D310A6FF-6BC7-45B9-A5AF-5AC903636EC0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4DD9551-E5DB-46AC-A5EA-3C05AEEC57A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E2EF69C-5181-4B75-A47A-CDFEA2FB8CF8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7B9EB60-562E-451D-AEAE-B92C6949490C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CC94BAE-524E-4E30-9EFE-535941849EB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2279216-8AB1-4C64-8A16-9B701E6F3359}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{314A04E7-5EF4-4D02-9D1E-6FA8592C2CE9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6AEC78C-21A3-4DE4-961F-D9AB7009FD41}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B236A39B-7D35-4500-8DA3-57FD366E4832}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDE4376D-C1C5-4115-8305-29E5A45340CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10FCC3CA-5F41-4BDA-B749-5271B8B465AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A111F9E2-7721-428A-835B-8A147E5DDB01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56C65804-FD70-4723-968E-3AA023A8F3F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67913E04-9732-4D07-8F8C-BB78F4FE197A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C3B991A-A857-4F7C-B051-83C1EE004B24}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2F2DD69-CB2A-4CB8-95F5-975A134F29DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7745,7 +7745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA088224-1A75-4EC0-A87A-6C773C570345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E664761-8180-440D-9C34-9F6BFCE4BFFD}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8982,18 +8982,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{833B6356-9976-4A36-87A9-24CE6EFE12FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E58B5878-3C49-475F-B166-A3FF475143CE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67F7A68C-8E85-4752-B578-EE785112D444}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9962D33E-66A4-464F-A137-06D4AF6597C6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A87040C4-7DAD-43A6-963C-D34A6A4CAB55}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4276B105-2DC9-47CF-9ECB-35F4A995E573}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4A71B5F-733D-4728-B214-AE8C28FE3D1A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AEF6F281-3D33-43B1-AEEF-07C35C58DA71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7C08CC7-6E52-428C-A955-0BEFFB085508}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{347F0C1F-F146-4595-8E07-D9BCDD217F7B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{015454A2-6723-4062-8C24-B2A3E9C9E4FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F113F9B-F9CB-450C-A94C-CDB1911EE15D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A2EC271-2313-4C33-927C-5BD55981AF64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59E529F6-7AA6-4AB3-B487-A33ED5D09595}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{954710FC-2C41-4DA9-996A-78EE655D57BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77385306-4D8B-4B1F-906C-C1E6BF6938EA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{79381DD5-B45E-43D5-BBE1-EF355BF1F87B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B2B5358-62CC-46ED-9410-8A535343DFA6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D756C0DF-60FA-4F0C-9AF0-CAF67AB69353}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84219827-37FC-4D71-9E59-16C007DB43BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3260D223-F7A3-441A-B12F-A3F63A66A1CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{019D0963-A20B-4E82-AC7F-B7A9F31BAA81}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37C9EBBB-FD8D-4EAD-9970-3122392695FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A76F238-33CF-4F0E-83BE-F257C76AACBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9006,7 +9006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B31C80F-27B1-442E-BA79-BF8F9581305C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88A7EE-CD15-4056-B46D-EEEBE004EAFC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10243,18 +10243,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E40B3C9-62CB-43E7-8031-ED7F045DD920}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F679A89-30E6-465E-B2A7-671C59DD7066}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A6E4AD91-50C6-4EC7-8E27-F83038153C2C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{46513C1C-7D0B-4FA1-8599-EE36E1157B16}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8C088108-96E2-439E-8F2C-6782D492065E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1FDCFECB-179B-4F8D-8030-91AEFA7B7639}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{369A9D40-4663-49DB-9ECF-4DB40D60EB43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13CEE84B-42DD-4FAB-8A78-D6B7D946615E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{254A56F3-D84D-44D9-89A9-514EC7440E35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40CA6760-CEDF-442D-8EF6-03808764E52E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12630FA7-00A2-41C9-AD7E-89C968B2C00B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4014E7C9-9545-46A2-A255-90BACD1A6C66}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B45876B-5A6C-4FEB-8F91-6C7500A7840B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C88CEEB-CEB7-4303-B6D6-79475F924317}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5BE1E9CD-CEAD-4C5D-8C88-0258BD905D5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E607433C-F749-400D-9B85-337356504CAC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8066B5D7-FC08-4B14-8A0B-F92B0A6BDED7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{078DF1D3-2DC5-4875-B15A-4984D25AB585}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6DD777B-1AE6-415E-AB94-FB4EF64AB94C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAE87048-9424-457B-9040-84B32698B878}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AC3AA42-DAFC-4B22-91CA-CEE313522954}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C898C90E-6628-4847-86DD-DED109FE8778}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33AB58FB-826A-4325-A6DB-F6980792DFAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A662DEA0-DB9D-43DA-BA59-C89F057D537E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10267,7 +10267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BD6349-F522-40AA-ACDF-0850019A23E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C3A1C9-9290-4303-98D6-C009FEDE5AED}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11505,18 +11505,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C95FE8A1-C9D4-4021-9854-8B4B685AB85B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2F2B094-238F-450F-BF6F-2AD69E8E083B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3272C6B0-119B-4E28-ABC9-87F590DF7B97}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7DD64BF-6A2A-46FE-8D00-96CF4E92A5A2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F1B1F6A9-D13E-45D3-999C-94EB1F6FBD80}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E918FA36-DE78-4B91-8990-BB057F85B59C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD282752-E807-4C4E-BAB2-205ABDC0E6A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3BA4DA0-FE59-4022-B992-08F84CD572F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A9A00EA-24A2-4FD8-85A3-CB5B7E9FE4EA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{38C01A59-3F24-48AA-BEAD-46D65E22F758}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{084C067A-A10B-494F-AFE6-7405F647DC20}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CAA0A8B-585B-42EA-B04B-669A90A328B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8232F55A-A30E-4169-A523-8894BB61D014}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05556605-05E8-47D8-AB68-EF528779FBE4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1CA386D3-0A6F-4C57-8385-3868732AFA35}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FB8EDAA2-7965-4820-B254-B9DB3D3795B6}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E5185EAB-4A6D-42AD-916F-FDA4BCC1A502}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F54A281D-5E57-4759-A09E-BCABBB067FE2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1D80357-3890-4D47-B29C-F7DEB4129B0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B86FA036-4287-4924-A427-1FD678A3F852}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7C8FD80-07BE-46DB-8AFF-07F45C44C5B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31AF650C-B1F2-45D6-B763-211E378A870E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D859A698-4CF0-4F3E-A295-E8FCA4B665A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B96AE0F3-0022-4F1A-97BE-EA52DB20E196}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11529,7 +11529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783196F8-A6F4-41EE-9221-07923A5DF098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF5F85B-78BC-4200-802C-F49F0BF0F5F3}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12767,18 +12767,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{880FDDAF-C593-4884-8AE7-3C5880F9E213}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB65FD89-E456-4EF2-91D1-598DE06FD46B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1615AD91-22C6-4793-8B28-4C693DD12430}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{013BA7CB-8B47-4C5B-9FCC-2786BD0B9ED3}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2408F38E-B4D8-45D3-A317-99C6BCF65EEE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B8BAF8C7-1D06-4428-A166-145D06F2709F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{083B98D6-C3A7-461A-99E2-C390C34EF0EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABB451A6-2E1F-4392-95C6-022F988BBEDD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F694FAC-DB94-49B9-9329-434728CC8EEE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F7A9456-6AC7-43BE-A97A-F53964536868}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAD3FBE2-A8D5-4666-91DC-B54993C61C4A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39B0D430-585E-4A33-BE96-15771985CB3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2F42A7C-C79E-42FA-AEE1-FD7829343F5F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75996988-F19A-4D0D-A84C-E117301E3FE0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71AB2BBB-B8E0-479C-9F3D-3FBF7EF929B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{75E9E13E-860C-4200-8C91-241B927A5697}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6D27C46B-FF85-44E5-9887-65BF6403CB19}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D09308DD-1036-4857-99EF-E5E4E29904B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{177120A9-A951-4B9F-AE4B-14952DE211CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE700E61-9525-4AA4-9B31-1B6BFF36987A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D425501F-7B20-44F1-A302-989FBA943D43}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7949081A-8A0C-4E78-863C-E158635CD134}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{993FE95A-A293-4279-9057-93FD0D3CAB95}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDFCAB6E-6246-4259-8FD0-383A99122963}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12791,7 +12791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C9694F-4EE6-4A80-A9F3-F43F67187793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA26C67-1775-455F-80F3-02EFE40278B8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14029,18 +14029,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EF99E62-D28F-4FF8-9FBB-C35E97528CF1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74C6A69C-FF0B-4B69-B9DC-F7AC2B1990D6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99479E5C-397F-4062-B1AB-712F307D8638}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6FBF599-BFAD-4698-A1D2-F85604AC8847}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{86152DC2-5E3C-4A10-9872-86A174C57421}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CD26C3C-E6E9-410D-9A89-FFF26FAEA61C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D02E1ED9-BC7D-4403-A22F-075701B1699B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{388E6EE0-1513-4C34-8DB1-74EDDCB97169}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C54BEF76-0DBE-4FBC-8DCB-2B6B93F27B02}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A86A99D-3095-4F71-AC05-BE54EA42EB98}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2303D938-64B3-4C30-9F71-0B72F7A72EA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10B7BACE-AC01-4419-82E3-1BEF2E752569}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B8CFCF0-FA84-449A-84D3-7E4090BCF3B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C86E8F4-4DFE-49EF-BEDF-1169BD67E1FE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{920AB905-406E-49EA-9D56-1AD1A530A2D2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3EF4126-A561-4E2D-BB84-D1EC7474C193}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2BA85475-E7C6-42ED-AF5F-BBC7DCE9432D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4540DD2-07A4-4AD9-980E-8DC6BCBF3C13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E36469F-E4E5-411C-AD7C-23D129A166A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4616CC19-46B1-4CF1-BEC4-CEF99FD6407F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F39237A8-3508-49C5-A39F-ABE4844108B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26FD2F5F-3A5A-43D3-B8D4-2D6EDB3D435E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB791576-9B3F-4066-AB60-BAAF4DB01A06}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{72CE068A-57C9-4B30-B0A2-21551F2277D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14053,7 +14053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CAE90F-98EC-48C7-B3E0-6E242645DFE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0936E8-3E1C-44E8-A794-7634BFFFB0D8}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15287,18 +15287,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4628559-BC6A-4621-BC17-0DF6F5AD351E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{241385C8-8BF5-4DA9-BA90-04A9E496FB2D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{07F90461-1165-4532-B097-EB97B898B5E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33928A04-0D74-4D9E-9338-FD74363FF791}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A2423C42-C7E1-43E5-9846-31AAFDACAA27}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AE53E3A4-D0AB-4DAB-A2F4-2DBB5C8F1800}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B10A7BF1-FC5D-4D15-A2CF-A00F9B0ED1EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35B0B7A5-821E-40B1-BC74-08400A89591D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{811660C1-F583-412D-A3E1-EC0F5F148099}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F4163A3-7A73-43E8-9443-5604AAAE92F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDCAD99B-F20A-479C-8071-8BECA2C5DAAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F3851EA-A06E-4C68-A35E-A7E5D7DFBABA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4E88E1F-CF85-4A39-872D-B5292862D11E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2E75E7C-0FC9-4347-AB93-F8F56111CCE1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8AEB6D24-50F7-4796-8979-6C93F862C5FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58094F42-D0CD-4768-83AB-B15B9694E61B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7A4546A0-4406-410C-9DF8-425CCC20474B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29BB37D9-2730-4C7A-A110-0F77137473A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{200EC086-7B43-497E-9AD2-8CE30A556954}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58085D77-625F-476C-B886-BA9DDD11E383}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3858064-6228-48C1-9445-8262C44CC00E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5336F3F1-B4C2-433B-BA44-781A920BC685}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{293DD777-64C6-44AA-B596-7D7885E2F9FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F6AB684-3045-46BD-BBB7-2F305DF98335}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15311,7 +15311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CF118C-01F5-4117-888B-810CAE49814B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0501B3-B569-44C0-BF93-DEE7E2D5F35D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16545,18 +16545,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1908B00-074A-446C-A461-B06776A102C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDEA6A98-2493-4E23-832A-BC1E9FBADCEC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9316A5BA-B98A-4A24-8440-E774A783D08C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D76AC1E7-CDE5-4BD9-B3B8-9DA804BCB86E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B2685E06-6CFE-41BC-AABF-4B859C6C746F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D6603F8-A4F4-4D0E-B2BD-E85717EE77A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D038C3E0-14EF-4EC1-8E50-29DBAF19D514}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AFBDA64-93BF-4A6B-B743-37D8C67562B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72993410-5E7C-4AC4-9D2A-964DCB880C9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F20BA29F-FA7D-4C03-A52F-8B0561128CCF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5F5BA1A-58F5-454C-A3BE-72096106DAC8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4C17661-7D3A-49CB-8636-32C8DC7F1A05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44F79D5C-F519-4F99-83DF-364839EBA62E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B8A389C-E277-4570-8AFD-998132C1A322}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3299ABB-1A8F-48C7-82B1-0EF91D3B15D2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC03375B-CA78-4952-B5A4-0ACB18A7B485}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{240FD6C4-3624-4781-8DB0-84E38FACA97A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14AB674A-F2B2-45CA-BA50-D0A447A202C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2F4E125-BBF1-4A65-9463-7B1156002C86}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85547594-69F3-4447-8FCF-FD50EB6DBC26}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{487C824F-4A48-4B78-A29B-B74A8866B97E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{764D970B-F237-4A27-8DC5-66959F051EE4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26255FC6-3D6D-4602-AEED-92436F1258C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{105CBF45-1983-4031-9DCA-B78083933185}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
